--- a/projectfiles/Sprintbacklog.xlsx
+++ b/projectfiles/Sprintbacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Google Drive Sync\Kolleg Leonding\5_6 ACIF\06. SYP Klewein\Aufgaben\Projekt Bike-Shop\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Google Drive Sync\Kolleg Leonding\5_6 ACIF\06. SYP Klewein\Aufgaben\Bike-Shop\projectfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEEC9D5-070D-49D1-8240-847C737D9D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81102B2-F285-4774-8CEC-76DB64FE49F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67320" yWindow="-2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5610" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agiles Projekt mit Gantt-Zeitac" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>Gefährdet</t>
   </si>
@@ -807,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="4" x14ac:dyDescent="0.3"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="6" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>42</v>
@@ -1336,7 +1336,9 @@
       <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="B22" s="19" t="s">
         <v>49</v>
       </c>
@@ -1496,7 +1498,9 @@
       <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="B29" s="19" t="s">
         <v>56</v>
       </c>
@@ -1700,7 +1704,9 @@
       <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="B38" s="19" t="s">
         <v>64</v>
       </c>
@@ -1941,12 +1947,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2108,15 +2111,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14289486-1D57-4241-826E-BBBA2853BD4D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8BBBC0-4682-4AD7-8465-57429CDC6804}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2140,10 +2147,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8BBBC0-4682-4AD7-8465-57429CDC6804}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14289486-1D57-4241-826E-BBBA2853BD4D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>